--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.460299999999994</v>
+        <v>-7.540099999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.12160000000001</v>
+        <v>-21.06740000000001</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.48199999999997</v>
+        <v>-20.57949999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.39650000000002</v>
+        <v>-22.38040000000003</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.84259999999998</v>
+        <v>-12.79869999999998</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.28800000000001</v>
+        <v>-22.20110000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -777,7 +777,7 @@
         <v>-14.65</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.583399999999999</v>
+        <v>-8.413899999999995</v>
       </c>
       <c r="E20" t="n">
         <v>13.73</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.31420000000003</v>
+        <v>-22.29000000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
